--- a/bot/menu.xlsx
+++ b/bot/menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - University of West Attica\ΜΕΡΙΜΝΑ\ΣΙΤΙΣΗ\ΑΛΛΗΛΟΓΡΑΦΙΑ ΜΕ ΦΟΙΤΗΤΕΣ-ΜΕΝΟΥ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwagr-my.sharepoint.com/personal/merimnafiles_uniwa_gr/Documents/ΜΕΡΙΜΝΑ/ΣΙΤΙΣΗ/ΑΛΛΗΛΟΓΡΑΦΙΑ ΜΕ ΦΟΙΤΗΤΕΣ-ΜΕΝΟΥ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2466E10-A5F1-4D15-BC27-92709CD8FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{32B94BBF-FE10-4A97-877D-3BD2308F572C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C1E82D-F71C-4502-874F-EFA704CE1861}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EAE3F4E5-000E-45A9-917F-BDDD25C08983}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="154">
   <si>
     <t>Σαρδέλα ψητή με πατάτες φούρνο ή Κριθαρότο μανιταριών</t>
   </si>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -898,21 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1256,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1267,16 +1252,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,26 +1270,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,19 +1313,16 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,7 +1337,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,34 +1346,112 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,172 +1460,94 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16C976-5E04-424D-B0B8-8BDF47ED2C37}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,10 +1890,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -1937,266 +1919,294 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="24">
-        <v>45537</v>
+        <v>45684</v>
       </c>
       <c r="D3" s="24">
-        <v>45538</v>
+        <v>45685</v>
       </c>
       <c r="E3" s="24">
-        <v>45539</v>
+        <v>45686</v>
       </c>
       <c r="F3" s="24">
-        <v>45540</v>
+        <v>45687</v>
       </c>
       <c r="G3" s="24">
-        <v>45541</v>
+        <v>45688</v>
       </c>
       <c r="H3" s="24">
-        <v>45542</v>
+        <v>45689</v>
       </c>
       <c r="I3" s="24">
-        <v>45543</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="25">
-        <v>45565</v>
+        <v>45712</v>
       </c>
       <c r="D4" s="25">
-        <v>45566</v>
+        <v>45713</v>
       </c>
       <c r="E4" s="25">
-        <v>45567</v>
+        <v>45714</v>
       </c>
       <c r="F4" s="25">
-        <v>45568</v>
+        <v>45715</v>
       </c>
       <c r="G4" s="25">
-        <v>45569</v>
+        <v>45716</v>
       </c>
       <c r="H4" s="25">
-        <v>45570</v>
+        <v>45717</v>
       </c>
       <c r="I4" s="25">
-        <v>45571</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="25">
-        <v>45593</v>
+        <v>45740</v>
       </c>
       <c r="D5" s="25">
-        <v>45594</v>
+        <v>45741</v>
       </c>
       <c r="E5" s="25">
-        <v>45595</v>
+        <v>45742</v>
       </c>
       <c r="F5" s="25">
-        <v>45596</v>
+        <v>45743</v>
       </c>
       <c r="G5" s="25">
-        <v>45597</v>
+        <v>45744</v>
       </c>
       <c r="H5" s="25">
-        <v>45598</v>
+        <v>45745</v>
       </c>
       <c r="I5" s="25">
-        <v>45599</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="25">
-        <v>45621</v>
+        <v>45768</v>
       </c>
       <c r="D6" s="25">
-        <v>45622</v>
+        <v>45769</v>
       </c>
       <c r="E6" s="25">
-        <v>45623</v>
+        <v>45770</v>
       </c>
       <c r="F6" s="25">
-        <v>45624</v>
+        <v>45771</v>
       </c>
       <c r="G6" s="25">
-        <v>45625</v>
+        <v>45772</v>
       </c>
       <c r="H6" s="25">
-        <v>45626</v>
+        <v>45773</v>
       </c>
       <c r="I6" s="25">
-        <v>45627</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="25">
+        <v>45796</v>
+      </c>
+      <c r="D7" s="25">
+        <v>45797</v>
+      </c>
+      <c r="E7" s="25">
+        <v>45798</v>
+      </c>
+      <c r="F7" s="25">
+        <v>45799</v>
+      </c>
+      <c r="G7" s="25">
+        <v>45800</v>
+      </c>
+      <c r="H7" s="25">
+        <v>45801</v>
+      </c>
+      <c r="I7" s="25">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="26">
+        <v>45824</v>
+      </c>
+      <c r="D8" s="26">
+        <v>45825</v>
+      </c>
+      <c r="E8" s="26">
+        <v>45826</v>
+      </c>
+      <c r="F8" s="26">
+        <v>45827</v>
+      </c>
+      <c r="G8" s="26">
+        <v>45828</v>
+      </c>
+      <c r="H8" s="26">
+        <v>45829</v>
+      </c>
+      <c r="I8" s="26">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="26">
+        <v>45852</v>
+      </c>
+      <c r="D9" s="26">
+        <v>45853</v>
+      </c>
+      <c r="E9" s="26">
+        <v>45854</v>
+      </c>
+      <c r="F9" s="26">
+        <v>45855</v>
+      </c>
+      <c r="G9" s="26">
+        <v>45856</v>
+      </c>
+      <c r="H9" s="26">
+        <v>45857</v>
+      </c>
+      <c r="I9" s="26">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2233,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="8" t="s">
         <v>115</v>
       </c>
@@ -2250,7 +2260,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2279,42 +2289,42 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G21" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="86" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="33" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
@@ -2339,10 +2349,10 @@
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -2368,134 +2378,158 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="24">
-        <v>45544</v>
+        <v>45691</v>
       </c>
       <c r="D26" s="24">
-        <v>45545</v>
+        <v>45692</v>
       </c>
       <c r="E26" s="24">
-        <v>45546</v>
+        <v>45693</v>
       </c>
       <c r="F26" s="24">
-        <v>45547</v>
+        <v>45694</v>
       </c>
       <c r="G26" s="24">
-        <v>45548</v>
+        <v>45695</v>
       </c>
       <c r="H26" s="24">
-        <v>45549</v>
+        <v>45696</v>
       </c>
       <c r="I26" s="24">
-        <v>45550</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
-      <c r="B27" s="103"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="25">
-        <v>45572</v>
+        <v>45719</v>
       </c>
       <c r="D27" s="25">
-        <v>45573</v>
+        <v>45720</v>
       </c>
       <c r="E27" s="25">
-        <v>45574</v>
+        <v>45721</v>
       </c>
       <c r="F27" s="25">
-        <v>45575</v>
+        <v>45722</v>
       </c>
       <c r="G27" s="25">
-        <v>45576</v>
+        <v>45723</v>
       </c>
       <c r="H27" s="25">
-        <v>45577</v>
+        <v>45724</v>
       </c>
       <c r="I27" s="25">
-        <v>45578</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="25">
-        <v>45600</v>
+        <v>45747</v>
       </c>
       <c r="D28" s="25">
-        <v>45601</v>
+        <v>45748</v>
       </c>
       <c r="E28" s="25">
-        <v>45602</v>
+        <v>45749</v>
       </c>
       <c r="F28" s="25">
-        <v>45603</v>
+        <v>45750</v>
       </c>
       <c r="G28" s="25">
-        <v>45604</v>
+        <v>45751</v>
       </c>
       <c r="H28" s="25">
-        <v>45605</v>
+        <v>45752</v>
       </c>
       <c r="I28" s="25">
-        <v>45606</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="25">
-        <v>45628</v>
+        <v>45775</v>
       </c>
       <c r="D29" s="25">
-        <v>45629</v>
+        <v>45776</v>
       </c>
       <c r="E29" s="25">
-        <v>45630</v>
+        <v>45777</v>
       </c>
       <c r="F29" s="25">
-        <v>45631</v>
+        <v>45778</v>
       </c>
       <c r="G29" s="25">
-        <v>45632</v>
+        <v>45779</v>
       </c>
       <c r="H29" s="25">
-        <v>45633</v>
+        <v>45780</v>
       </c>
       <c r="I29" s="25">
-        <v>45634</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="25">
+        <v>45803</v>
+      </c>
+      <c r="D30" s="25">
+        <v>45804</v>
+      </c>
+      <c r="E30" s="25">
+        <v>45805</v>
+      </c>
+      <c r="F30" s="25">
+        <v>45806</v>
+      </c>
+      <c r="G30" s="25">
+        <v>45807</v>
+      </c>
+      <c r="H30" s="25">
+        <v>45808</v>
+      </c>
+      <c r="I30" s="25">
+        <v>45809</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="26">
+        <v>45831</v>
+      </c>
+      <c r="D31" s="26">
+        <v>45832</v>
+      </c>
+      <c r="E31" s="26">
+        <v>45833</v>
+      </c>
+      <c r="F31" s="26">
+        <v>45834</v>
+      </c>
+      <c r="G31" s="26">
+        <v>45835</v>
+      </c>
+      <c r="H31" s="26">
+        <v>45836</v>
+      </c>
+      <c r="I31" s="26">
+        <v>45837</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -2505,119 +2539,119 @@
       <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="85"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="76" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="52"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="77"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="53"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="7" t="s">
         <v>51</v>
       </c>
@@ -2644,7 +2678,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="8" t="s">
         <v>115</v>
       </c>
@@ -2657,7 +2691,7 @@
       <c r="E42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="37" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -2671,19 +2705,19 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="28" t="s">
         <v>76</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -2692,37 +2726,37 @@
       <c r="G43" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="31" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2749,10 +2783,10 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -2778,130 +2812,158 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="24">
-        <v>45551</v>
+        <v>45698</v>
       </c>
       <c r="D48" s="24">
-        <v>45552</v>
+        <v>45699</v>
       </c>
       <c r="E48" s="24">
-        <v>45553</v>
+        <v>45700</v>
       </c>
       <c r="F48" s="24">
-        <v>45554</v>
+        <v>45701</v>
       </c>
       <c r="G48" s="24">
-        <v>45555</v>
+        <v>45702</v>
       </c>
       <c r="H48" s="24">
-        <v>45556</v>
+        <v>45703</v>
       </c>
       <c r="I48" s="24">
-        <v>45557</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
-      <c r="B49" s="103"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="25">
-        <v>45579</v>
+        <v>45726</v>
       </c>
       <c r="D49" s="25">
-        <v>45580</v>
+        <v>45727</v>
       </c>
       <c r="E49" s="25">
-        <v>45581</v>
+        <v>45728</v>
       </c>
       <c r="F49" s="25">
-        <v>45582</v>
+        <v>45729</v>
       </c>
       <c r="G49" s="25">
-        <v>45583</v>
+        <v>45730</v>
       </c>
       <c r="H49" s="25">
-        <v>45584</v>
+        <v>45731</v>
       </c>
       <c r="I49" s="25">
-        <v>45585</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="25">
-        <v>45607</v>
+        <v>45754</v>
       </c>
       <c r="D50" s="25">
-        <v>45608</v>
+        <v>45755</v>
       </c>
       <c r="E50" s="25">
-        <v>45609</v>
+        <v>45756</v>
       </c>
       <c r="F50" s="25">
-        <v>45610</v>
+        <v>45757</v>
       </c>
       <c r="G50" s="25">
-        <v>45611</v>
+        <v>45758</v>
       </c>
       <c r="H50" s="25">
-        <v>45612</v>
+        <v>45759</v>
       </c>
       <c r="I50" s="25">
-        <v>45613</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="25">
-        <v>45635</v>
+        <v>45782</v>
       </c>
       <c r="D51" s="25">
-        <v>45636</v>
+        <v>45783</v>
       </c>
       <c r="E51" s="25">
-        <v>45637</v>
+        <v>45784</v>
       </c>
       <c r="F51" s="25">
-        <v>45638</v>
+        <v>45785</v>
       </c>
       <c r="G51" s="25">
-        <v>45639</v>
+        <v>45786</v>
       </c>
       <c r="H51" s="25">
-        <v>45640</v>
+        <v>45787</v>
       </c>
       <c r="I51" s="25">
-        <v>45641</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="25">
+        <v>45810</v>
+      </c>
+      <c r="D52" s="25">
+        <v>45811</v>
+      </c>
+      <c r="E52" s="25">
+        <v>45812</v>
+      </c>
+      <c r="F52" s="25">
+        <v>45813</v>
+      </c>
+      <c r="G52" s="25">
+        <v>45814</v>
+      </c>
+      <c r="H52" s="25">
+        <v>45815</v>
+      </c>
+      <c r="I52" s="25">
+        <v>45816</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="25">
+        <v>45838</v>
+      </c>
+      <c r="D53" s="25">
+        <v>45839</v>
+      </c>
+      <c r="E53" s="25">
+        <v>45840</v>
+      </c>
+      <c r="F53" s="25">
+        <v>45841</v>
+      </c>
+      <c r="G53" s="25">
+        <v>45842</v>
+      </c>
+      <c r="H53" s="25">
+        <v>45843</v>
+      </c>
+      <c r="I53" s="25">
+        <v>45844</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="101"/>
-      <c r="B54" s="103"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2911,119 +2973,119 @@
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="79"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="82"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="82"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="85"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="91" t="s">
+      <c r="C60" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="D60" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="51" t="s">
+      <c r="I60" s="76" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="52"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="77"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="53"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="7" t="s">
         <v>51</v>
       </c>
@@ -3050,7 +3112,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="8" t="s">
         <v>115</v>
       </c>
@@ -3072,15 +3134,15 @@
       <c r="H64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="J64" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -3104,47 +3166,47 @@
       <c r="H65" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="70" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="F66" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G66" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="96" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="44"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="97"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
@@ -3169,10 +3231,10 @@
       <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="86" t="s">
+      <c r="A70" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="88" t="s">
+      <c r="B70" s="100" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="21" t="s">
@@ -3198,243 +3260,269 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="87"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24">
-        <v>45536</v>
+      <c r="A71" s="99"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="38">
+        <v>45705</v>
+      </c>
+      <c r="D71" s="38">
+        <v>45706</v>
+      </c>
+      <c r="E71" s="38">
+        <v>45707</v>
+      </c>
+      <c r="F71" s="38">
+        <v>45708</v>
+      </c>
+      <c r="G71" s="38">
+        <v>45709</v>
+      </c>
+      <c r="H71" s="38">
+        <v>45710</v>
+      </c>
+      <c r="I71" s="38">
+        <v>45711</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="87"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="40">
-        <v>45558</v>
-      </c>
-      <c r="D72" s="40">
-        <v>45559</v>
-      </c>
-      <c r="E72" s="40">
-        <v>45560</v>
-      </c>
-      <c r="F72" s="40">
-        <v>45561</v>
-      </c>
-      <c r="G72" s="40">
-        <v>45562</v>
-      </c>
-      <c r="H72" s="40">
-        <v>45563</v>
-      </c>
-      <c r="I72" s="40">
-        <v>45564</v>
+      <c r="A72" s="99"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="39">
+        <v>45733</v>
+      </c>
+      <c r="D72" s="39">
+        <v>45734</v>
+      </c>
+      <c r="E72" s="39">
+        <v>45735</v>
+      </c>
+      <c r="F72" s="39">
+        <v>45736</v>
+      </c>
+      <c r="G72" s="39">
+        <v>45737</v>
+      </c>
+      <c r="H72" s="39">
+        <v>45738</v>
+      </c>
+      <c r="I72" s="39">
+        <v>45739</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="87"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="40">
-        <v>45586</v>
-      </c>
-      <c r="D73" s="40">
-        <v>45587</v>
-      </c>
-      <c r="E73" s="40">
-        <v>45588</v>
-      </c>
-      <c r="F73" s="40">
-        <v>45589</v>
-      </c>
-      <c r="G73" s="40">
-        <v>45590</v>
-      </c>
-      <c r="H73" s="40">
-        <v>45591</v>
-      </c>
-      <c r="I73" s="40">
-        <v>45592</v>
+      <c r="A73" s="99"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="39">
+        <v>45761</v>
+      </c>
+      <c r="D73" s="39">
+        <v>45762</v>
+      </c>
+      <c r="E73" s="39">
+        <v>45763</v>
+      </c>
+      <c r="F73" s="39">
+        <v>45764</v>
+      </c>
+      <c r="G73" s="39">
+        <v>45765</v>
+      </c>
+      <c r="H73" s="39">
+        <v>45766</v>
+      </c>
+      <c r="I73" s="39">
+        <v>45767</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="87"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="40">
-        <v>45614</v>
-      </c>
-      <c r="D74" s="40">
-        <v>45615</v>
-      </c>
-      <c r="E74" s="40">
-        <v>45616</v>
-      </c>
-      <c r="F74" s="40">
-        <v>45617</v>
-      </c>
-      <c r="G74" s="40">
-        <v>45618</v>
-      </c>
-      <c r="H74" s="40">
-        <v>45619</v>
-      </c>
-      <c r="I74" s="40">
-        <v>45620</v>
+      <c r="A74" s="99"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="39">
+        <v>45789</v>
+      </c>
+      <c r="D74" s="39">
+        <v>45790</v>
+      </c>
+      <c r="E74" s="39">
+        <v>45791</v>
+      </c>
+      <c r="F74" s="39">
+        <v>45792</v>
+      </c>
+      <c r="G74" s="39">
+        <v>45793</v>
+      </c>
+      <c r="H74" s="39">
+        <v>45794</v>
+      </c>
+      <c r="I74" s="39">
+        <v>45795</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="87"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="40">
-        <v>45612</v>
-      </c>
-      <c r="D75" s="40">
-        <v>45613</v>
-      </c>
-      <c r="E75" s="40">
-        <v>45614</v>
-      </c>
-      <c r="F75" s="40">
-        <v>45615</v>
-      </c>
-      <c r="G75" s="40">
-        <v>45616</v>
-      </c>
-      <c r="H75" s="40">
-        <v>45617</v>
-      </c>
-      <c r="I75" s="40">
-        <v>45618</v>
+      <c r="A75" s="99"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="39">
+        <v>45817</v>
+      </c>
+      <c r="D75" s="39">
+        <v>45818</v>
+      </c>
+      <c r="E75" s="39">
+        <v>45819</v>
+      </c>
+      <c r="F75" s="39">
+        <v>45820</v>
+      </c>
+      <c r="G75" s="39">
+        <v>45821</v>
+      </c>
+      <c r="H75" s="39">
+        <v>45822</v>
+      </c>
+      <c r="I75" s="39">
+        <v>45823</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="87"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="39">
+        <v>45845</v>
+      </c>
+      <c r="D76" s="39">
+        <v>45846</v>
+      </c>
+      <c r="E76" s="39">
+        <v>45847</v>
+      </c>
+      <c r="F76" s="39">
+        <v>45848</v>
+      </c>
+      <c r="G76" s="39">
+        <v>45849</v>
+      </c>
+      <c r="H76" s="39">
+        <v>45850</v>
+      </c>
+      <c r="I76" s="39">
+        <v>45851</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="77" t="s">
+      <c r="C77" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="79"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="82"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="73"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="81"/>
-      <c r="I79" s="82"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="73"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="82"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="65"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="74"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="85"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="68"/>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="64" t="s">
+      <c r="E82" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F82" s="64" t="s">
+      <c r="F82" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G82" s="45" t="s">
+      <c r="G82" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="H82" s="48" t="s">
+      <c r="H82" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="I82" s="51" t="s">
+      <c r="I82" s="76" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="52"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="77"/>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="53"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="78"/>
     </row>
     <row r="85" spans="1:10" ht="126" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="7" t="s">
         <v>51</v>
       </c>
@@ -3459,12 +3547,12 @@
       <c r="I85" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J85" s="35" t="s">
+      <c r="J85" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="8" t="s">
         <v>115</v>
       </c>
@@ -3489,12 +3577,12 @@
       <c r="I86" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J86" s="35" t="s">
+      <c r="J86" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="52" t="s">
         <v>48</v>
       </c>
       <c r="B87" s="16" t="s">
@@ -3518,61 +3606,107 @@
       <c r="H87" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="29" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="70" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G88" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="H88" s="41" t="s">
+      <c r="H88" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="I88" s="43" t="s">
+      <c r="I88" s="96" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="69"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="44"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:I81"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:I59"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C33:I37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="C10:I14"/>
@@ -3589,63 +3723,17 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:I59"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C33:I37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:I81"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3653,23 +3741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037708484A1B4CF48BCA1B2D5CAA47008" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc902d70b47fd3a6ec4082ae7074616a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b" xmlns:ns4="53658364-ced5-4d68-a829-2320ea08dcba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="821311b77023d6724496f82d67e3f9d2" ns3:_="" ns4:_="">
     <xsd:import namespace="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b"/>
@@ -3896,32 +3967,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4FC6A5-175F-4704-BD2B-8B750941F07C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="53658364-ced5-4d68-a829-2320ea08dcba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E741D161-BAD7-4074-B3A4-9737E516F6BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8AE6DE-5B30-4EA3-AF38-AECEDACF54CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3938,4 +4001,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E741D161-BAD7-4074-B3A4-9737E516F6BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4FC6A5-175F-4704-BD2B-8B750941F07C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb3b4dd2-58e6-4c13-a4b2-d3c048c0786b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="53658364-ced5-4d68-a829-2320ea08dcba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/bot/menu.xlsx
+++ b/bot/menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId1"/>
@@ -3560,7 +3560,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
@@ -3568,18 +3568,18 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="17.83203125"/>
     <col customWidth="1" min="3" max="3" width="17"/>
-    <col customWidth="1" min="4" max="4" width="18.83203125"/>
-    <col customWidth="1" min="5" max="5" width="0.33203125"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="24.86328125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="11.421875"/>
     <col customWidth="1" min="6" max="6" width="18.33203125"/>
-    <col customWidth="1" min="7" max="7" width="0.33203125"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="11.421875"/>
     <col customWidth="1" min="8" max="8" width="18.33203125"/>
     <col customWidth="1" hidden="1" min="9" max="9" width="9.1640625"/>
     <col customWidth="1" min="10" max="10" width="18"/>
     <col customWidth="1" hidden="1" min="11" max="11" width="9.1640625"/>
     <col customWidth="1" min="12" max="12" width="18.1640625"/>
-    <col customWidth="1" min="13" max="13" width="0.33203125"/>
-    <col customWidth="1" min="14" max="14" width="26.6640625"/>
-    <col customWidth="1" min="15" max="15" width="0.5"/>
+    <col customWidth="1" min="13" max="13" width="22.28125"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="10.51171875"/>
+    <col customWidth="1" min="15" max="15" width="16.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3591,15 +3591,11 @@
       <c r="D1" s="46">
         <v>45972</v>
       </c>
-      <c r="E1" s="46">
-        <v>45973</v>
-      </c>
+      <c r="E1" s="46"/>
       <c r="F1" s="46">
         <v>45973</v>
       </c>
-      <c r="G1" s="46">
-        <v>45975</v>
-      </c>
+      <c r="G1" s="46"/>
       <c r="H1" s="46">
         <v>45974</v>
       </c>
@@ -3615,12 +3611,13 @@
       <c r="L1" s="46">
         <v>45976</v>
       </c>
-      <c r="M1" s="46">
-        <v>45981</v>
-      </c>
-      <c r="N1" s="46">
-        <v>45977</v>
-      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
     </row>
     <row r="2">
       <c r="A2" s="45"/>
@@ -3631,15 +3628,11 @@
       <c r="D2" s="46">
         <v>46000</v>
       </c>
-      <c r="E2" s="46">
-        <v>46001</v>
-      </c>
+      <c r="E2" s="46"/>
       <c r="F2" s="46">
         <v>46001</v>
       </c>
-      <c r="G2" s="46">
-        <v>46003</v>
-      </c>
+      <c r="G2" s="46"/>
       <c r="H2" s="46">
         <v>46002</v>
       </c>
@@ -3655,12 +3648,8 @@
       <c r="L2" s="46">
         <v>46004</v>
       </c>
-      <c r="M2" s="46">
-        <v>46009</v>
-      </c>
-      <c r="N2" s="46">
-        <v>46005</v>
-      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3">
       <c r="A3" s="45"/>
@@ -4535,10 +4524,10 @@
     <col customWidth="1" min="5" max="5" width="18.33203125"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="9.1640625"/>
     <col customWidth="1" min="7" max="7" width="18.5"/>
-    <col customWidth="1" min="8" max="8" width="0.5"/>
-    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="11.421875"/>
+    <col customWidth="1" min="9" max="9" width="27.8515625"/>
     <col customWidth="1" hidden="1" min="10" max="10" width="0.1640625"/>
-    <col customWidth="1" min="11" max="11" width="16.83203125"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="18.671875"/>
     <col customWidth="1" min="12" max="12" width="14.33203125"/>
     <col customWidth="1" min="13" max="13" width="22.5"/>
   </cols>
@@ -4555,9 +4544,7 @@
       <c r="E1" s="46">
         <v>45979</v>
       </c>
-      <c r="F1" s="46">
-        <v>45981</v>
-      </c>
+      <c r="F1" s="46"/>
       <c r="G1" s="46">
         <v>45980</v>
       </c>
@@ -4567,9 +4554,7 @@
       <c r="I1" s="46">
         <v>45981</v>
       </c>
-      <c r="J1" s="46">
-        <v>45982</v>
-      </c>
+      <c r="J1" s="46"/>
       <c r="K1" s="46">
         <v>45982</v>
       </c>
@@ -4592,15 +4577,11 @@
       <c r="E2" s="46">
         <v>46007</v>
       </c>
-      <c r="F2" s="46">
-        <v>46009</v>
-      </c>
+      <c r="F2" s="46"/>
       <c r="G2" s="46">
         <v>46008</v>
       </c>
-      <c r="H2" s="46">
-        <v>46011</v>
-      </c>
+      <c r="H2" s="46"/>
       <c r="I2" s="46">
         <v>46009</v>
       </c>
